--- a/TestData/tealPDTestData.xlsx
+++ b/TestData/tealPDTestData.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26707"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6A46473-2272-4905-9BCB-7D4CD3EC1730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SeleniumProjects\HybridFrameWork\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A15649-5D3F-4EB9-AB35-B6E9DFE3F5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
+    <sheet name="Add Contacts Details" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>url</t>
   </si>
@@ -46,13 +52,34 @@
   </si>
   <si>
     <t>test123</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>John Stephan Testing</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>PhoneMain</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,7 +118,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -151,6 +178,51 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -158,13 +230,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -482,18 +564,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -504,7 +586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -521,4 +603,56 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3021415-B1E7-40C8-B45C-D2D329108871}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>1234569875</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{35FBF3EC-04C0-4A6C-8735-ACA385590FDE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/tealPDTestData.xlsx
+++ b/TestData/tealPDTestData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SeleniumProjects\HybridFrameWork\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A15649-5D3F-4EB9-AB35-B6E9DFE3F5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4B2C45-1964-4829-A0B9-B4E8BC162D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
     <sheet name="Add Contacts Details" sheetId="2" r:id="rId2"/>
+    <sheet name="QP Page" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>url</t>
   </si>
@@ -73,6 +74,18 @@
   </si>
   <si>
     <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>QP Name</t>
+  </si>
+  <si>
+    <t>QP Instructions</t>
+  </si>
+  <si>
+    <t>Created For Testing Purpose</t>
+  </si>
+  <si>
+    <t>Only for Testing</t>
   </si>
 </sst>
 </file>
@@ -118,7 +131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -221,6 +234,19 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -230,7 +256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -247,6 +273,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -609,7 +638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3021415-B1E7-40C8-B45C-D2D329108871}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -655,4 +684,41 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB225BBE-11EE-4098-96C5-9BAAFF35CF2D}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TestData/tealPDTestData.xlsx
+++ b/TestData/tealPDTestData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SeleniumProjects\HybridFrameWork\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4B2C45-1964-4829-A0B9-B4E8BC162D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64D45D3-9F13-4CCF-9E58-2F9E077B1B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
     <sheet name="Add Contacts Details" sheetId="2" r:id="rId2"/>
     <sheet name="QP Page" sheetId="3" r:id="rId3"/>
+    <sheet name="Task1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>url</t>
   </si>
@@ -82,10 +83,13 @@
     <t>QP Instructions</t>
   </si>
   <si>
-    <t>Created For Testing Purpose</t>
-  </si>
-  <si>
     <t>Only for Testing</t>
+  </si>
+  <si>
+    <t>Creating of Automation Purpose</t>
+  </si>
+  <si>
+    <t>192.168.1.16/secure/items/skidsmanage.aspx?skid=172</t>
   </si>
 </sst>
 </file>
@@ -256,7 +260,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -276,6 +280,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -594,7 +601,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB225BBE-11EE-4098-96C5-9BAAFF35CF2D}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,16 +716,61 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378CF84A-A633-4CAE-B188-0AC38AEAE945}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://192.168.1.16/secure/items/skidsmanage.aspx?skid=172" xr:uid="{7B5EE424-AA4A-46CE-9998-ACDA8193BE41}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/tealPDTestData.xlsx
+++ b/TestData/tealPDTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SeleniumProjects\HybridFrameWork\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64D45D3-9F13-4CCF-9E58-2F9E077B1B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A8C8D9-B49E-4B50-90A0-870BC6677F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
     <sheet name="Add Contacts Details" sheetId="2" r:id="rId2"/>
     <sheet name="QP Page" sheetId="3" r:id="rId3"/>
-    <sheet name="Task1" sheetId="4" r:id="rId4"/>
+    <sheet name="skidstask" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>url</t>
   </si>
@@ -89,14 +89,14 @@
     <t>Creating of Automation Purpose</t>
   </si>
   <si>
-    <t>192.168.1.16/secure/items/skidsmanage.aspx?skid=172</t>
+    <t>skidids</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +116,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -260,7 +266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -282,6 +288,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -601,14 +613,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -634,8 +646,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{6E40B76D-FEF8-445A-9825-FFFDC3158E0C}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{AF61DC50-91C5-4507-813E-2436D1E37A2C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -732,10 +745,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378CF84A-A633-4CAE-B188-0AC38AEAE945}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,32 +758,205 @@
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>142</v>
+      </c>
+      <c r="N11" s="14"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://192.168.1.16/secure/items/skidsmanage.aspx?skid=172" xr:uid="{7B5EE424-AA4A-46CE-9998-ACDA8193BE41}"/>
-  </hyperlinks>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestData/tealPDTestData.xlsx
+++ b/TestData/tealPDTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SeleniumProjects\HybridFrameWork\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A8C8D9-B49E-4B50-90A0-870BC6677F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC3BF0B-D0A3-47EF-8780-7306B6A7B6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>http://192.168.1.16/</t>
-  </si>
-  <si>
     <t>ankit</t>
   </si>
   <si>
@@ -90,6 +87,9 @@
   </si>
   <si>
     <t>skidids</t>
+  </si>
+  <si>
+    <t>http://192.168.1.16:8025/</t>
   </si>
 </sst>
 </file>
@@ -612,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,13 +636,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -672,30 +672,30 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>1234569875</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -723,18 +723,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -747,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378CF84A-A633-4CAE-B188-0AC38AEAE945}">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,7 +760,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">

--- a/TestData/tealPDTestData.xlsx
+++ b/TestData/tealPDTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SeleniumProjects\HybridFrameWork\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC3BF0B-D0A3-47EF-8780-7306B6A7B6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7C12ED-7BFF-4599-9E4B-8D90CB5DBA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -56,9 +54,6 @@
     <t>FirstName</t>
   </si>
   <si>
-    <t>John Stephan Testing</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -90,6 +85,9 @@
   </si>
   <si>
     <t>http://192.168.1.16:8025/</t>
+  </si>
+  <si>
+    <t>For Test Purpose</t>
   </si>
 </sst>
 </file>
@@ -612,7 +610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -636,7 +634,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -658,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3021415-B1E7-40C8-B45C-D2D329108871}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,27 +673,27 @@
         <v>5</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>1234569875</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -723,18 +721,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -760,7 +758,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">

--- a/TestData/tealPDTestData.xlsx
+++ b/TestData/tealPDTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SeleniumProjects\HybridFrameWork\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SeleniumProjects\HybridFrameWork\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7C12ED-7BFF-4599-9E4B-8D90CB5DBA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DD4B4E-FE39-4B83-A9B0-ED95040E9DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6825" yWindow="1095" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
@@ -610,13 +610,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" customWidth="1"/>
   </cols>
@@ -656,7 +656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3021415-B1E7-40C8-B45C-D2D329108871}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
